--- a/docs/analysis/Data Analysis 05.11.15.xlsx
+++ b/docs/analysis/Data Analysis 05.11.15.xlsx
@@ -1,27 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l1124010\Downloads\researchProject-master\researchProject-master\minimumVarianceControl\Logged data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\researchProject\docs\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="810" windowWidth="19575" windowHeight="7080"/>
+    <workbookView xWindow="630" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Log - A" sheetId="4" r:id="rId1"/>
     <sheet name="Log - B" sheetId="5" r:id="rId2"/>
     <sheet name="Log - C" sheetId="6" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Log - A'!$L$4:$L$5</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Log - B'!$L$4:$L$5</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Log - C'!$M$4:$M$5</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Log - A'!$I$33</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Log - B'!$I$37</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Log - C'!$I$47</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Log - A'!$I$33</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Log - B'!$I$37</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Log - C'!$L$38</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -54,6 +146,33 @@
   </si>
   <si>
     <t>Date:</t>
+  </si>
+  <si>
+    <t>PV (O)</t>
+  </si>
+  <si>
+    <t>OP (O)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
@@ -98,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -107,6 +226,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,7 +296,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Log - A'!$B$3</c:f>
+              <c:f>'Log - A'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -280,96 +403,96 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - A'!$B$4:$B$32</c:f>
+              <c:f>'Log - A'!$C$4:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>138</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>147</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>167</c:v>
+                  <c:v>16.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>171</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>177</c:v>
+                  <c:v>17.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>191</c:v>
+                  <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>197</c:v>
+                  <c:v>19.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>201</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>209</c:v>
+                  <c:v>20.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>210</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>225</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>232</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>236</c:v>
+                  <c:v>23.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>238</c:v>
+                  <c:v>23.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>243</c:v>
+                  <c:v>24.3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>256</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>257</c:v>
+                  <c:v>25.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>261</c:v>
+                  <c:v>26.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>264</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -381,7 +504,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Log - A'!$C$3</c:f>
+              <c:f>'Log - A'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -488,96 +611,96 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - A'!$C$4:$C$32</c:f>
+              <c:f>'Log - A'!$E$4:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>350</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>350</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>350</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,93 +811,93 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - A'!$F$5:$F$32</c:f>
+              <c:f>'Log - A'!$H$5:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>83.860465116215636</c:v>
+                  <c:v>8.3860465116215632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.999938730433271</c:v>
+                  <c:v>8.3999938730433286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.185494282324981</c:v>
+                  <c:v>8.6185494282324964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.631918134126082</c:v>
+                  <c:v>8.7631918134126074</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.955877757102144</c:v>
+                  <c:v>8.6955877757102122</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.971736116686202</c:v>
+                  <c:v>8.8971736116686202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.584156774690939</c:v>
+                  <c:v>9.8584156774690967</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.700515741876643</c:v>
+                  <c:v>9.4700515741876661</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.916441774134967</c:v>
+                  <c:v>8.3916441774134967</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.154606975727006</c:v>
+                  <c:v>8.0154606975726992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>137.48967769607475</c:v>
+                  <c:v>13.748967769607475</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>146.09585592685329</c:v>
+                  <c:v>14.609585592685328</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>179.78102126719412</c:v>
+                  <c:v>17.978102126719413</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>173.59204552703932</c:v>
+                  <c:v>17.359204552703932</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>181.2801105465627</c:v>
+                  <c:v>18.12801105465627</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200.85283065874751</c:v>
+                  <c:v>20.085283065874748</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>200.90221225123196</c:v>
+                  <c:v>20.090221225123194</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.60088647003062</c:v>
+                  <c:v>20.36008864700306</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>214.72769772254597</c:v>
+                  <c:v>21.472769772254598</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>210.72079039315599</c:v>
+                  <c:v>21.0720790393156</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>238.16433874736279</c:v>
+                  <c:v>23.816433874736276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>238.18869273942715</c:v>
+                  <c:v>23.818869273942713</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>239.45907285576055</c:v>
+                  <c:v>23.945907285576055</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>239.73256614796367</c:v>
+                  <c:v>23.973256614796369</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>247.46860117775674</c:v>
+                  <c:v>24.746860117775675</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>267.50060783069966</c:v>
+                  <c:v>26.750060783069969</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>257.80827489424314</c:v>
+                  <c:v>25.780827489424311</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>264.21833616420986</c:v>
+                  <c:v>26.421833616420983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,16 +912,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="744323800"/>
-        <c:axId val="560937576"/>
+        <c:axId val="315945024"/>
+        <c:axId val="315945584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="744323800"/>
+        <c:axId val="315945024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -822,23 +946,43 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="560937576"/>
+        <c:crossAx val="315945584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560937576"/>
+        <c:axId val="315945584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>PV,OP &amp; PV Model (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="744323800"/>
+        <c:crossAx val="315945024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1029,7 +1173,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - A'!$D$4:$D$32</c:f>
+              <c:f>'Log - A'!$F$4:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
@@ -1229,7 +1373,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - A'!$E$4:$E$32</c:f>
+              <c:f>'Log - A'!$G$4:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
@@ -1333,11 +1477,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="604766616"/>
-        <c:axId val="796465168"/>
+        <c:axId val="315948944"/>
+        <c:axId val="315949504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="604766616"/>
+        <c:axId val="315948944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,12 +1491,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="796465168"/>
+        <c:crossAx val="315949504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="796465168"/>
+        <c:axId val="315949504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="604766616"/>
+        <c:crossAx val="315948944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1434,7 +1578,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Log - B'!$B$3</c:f>
+              <c:f>'Log - B'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1553,108 +1697,108 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - B'!$B$4:$B$36</c:f>
+              <c:f>'Log - B'!$C$4:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>296</c:v>
+                  <c:v>29.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>295</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>298</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>303</c:v>
+                  <c:v>30.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>298</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>308</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>309</c:v>
+                  <c:v>30.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>318</c:v>
+                  <c:v>31.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>326</c:v>
+                  <c:v>32.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>327</c:v>
+                  <c:v>32.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>341</c:v>
+                  <c:v>34.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>350</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>358</c:v>
+                  <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>360</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>367</c:v>
+                  <c:v>36.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>374</c:v>
+                  <c:v>37.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>386</c:v>
+                  <c:v>38.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>388</c:v>
+                  <c:v>38.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>394</c:v>
+                  <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>396</c:v>
+                  <c:v>39.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>406</c:v>
+                  <c:v>40.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>415</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>417</c:v>
+                  <c:v>41.7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>421</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>424</c:v>
+                  <c:v>42.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>433</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>435</c:v>
+                  <c:v>43.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>444</c:v>
+                  <c:v>44.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>441</c:v>
+                  <c:v>44.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>450</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>451</c:v>
+                  <c:v>45.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,7 +1810,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Log - B'!$C$3</c:f>
+              <c:f>'Log - B'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1785,108 +1929,108 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - B'!$C$4:$C$36</c:f>
+              <c:f>'Log - B'!$E$4:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,105 +2153,105 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - B'!$F$5:$F$36</c:f>
+              <c:f>'Log - B'!$H$5:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>299.00000000365463</c:v>
+                  <c:v>29.900000000365459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>295.53942618893211</c:v>
+                  <c:v>29.55394261889322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>296.2434961808089</c:v>
+                  <c:v>29.624349618080888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.08487519325473</c:v>
+                  <c:v>30.00848751932547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300.51207157880845</c:v>
+                  <c:v>30.051207157880842</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>302.48931395519662</c:v>
+                  <c:v>30.248931395519655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>302.96141174488372</c:v>
+                  <c:v>30.296141174488376</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>305.27247967592052</c:v>
+                  <c:v>30.527247967592057</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>358.87311935373248</c:v>
+                  <c:v>35.887311935373241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>313.87151612390505</c:v>
+                  <c:v>31.387151612390497</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>324.60832918674078</c:v>
+                  <c:v>32.460832918674058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>302.2685441907629</c:v>
+                  <c:v>30.226854419076261</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>391.7147690426666</c:v>
+                  <c:v>39.171476904266669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>397.76875750060958</c:v>
+                  <c:v>39.776875750060952</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>366.57014614685977</c:v>
+                  <c:v>36.657014614685977</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>389.66744610556555</c:v>
+                  <c:v>38.96674461055656</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>393.10259672531856</c:v>
+                  <c:v>39.310259672531849</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>419.54990384507403</c:v>
+                  <c:v>41.954990384507411</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>392.33540291139087</c:v>
+                  <c:v>39.233540291139093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>406.83556818562965</c:v>
+                  <c:v>40.683556818562977</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>399.90600857114555</c:v>
+                  <c:v>39.990600857114551</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>424.7382967549446</c:v>
+                  <c:v>42.473829675494464</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>430.60305043663016</c:v>
+                  <c:v>43.060305043663007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>420.91250933994138</c:v>
+                  <c:v>42.091250933994147</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>428.84057644140165</c:v>
+                  <c:v>42.884057644140171</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>430.14587239760078</c:v>
+                  <c:v>43.014587239760075</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>426.99160216858661</c:v>
+                  <c:v>42.699160216858665</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>447.97124817412697</c:v>
+                  <c:v>44.797124817412694</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>438.47559799492899</c:v>
+                  <c:v>43.847559799492906</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>458.40054188908925</c:v>
+                  <c:v>45.840054188908937</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>436.68894648462333</c:v>
+                  <c:v>43.668894648462341</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>459.46852533765752</c:v>
+                  <c:v>45.946852533765757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2122,11 +2266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="796465952"/>
-        <c:axId val="796466344"/>
+        <c:axId val="316073104"/>
+        <c:axId val="316073664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="796465952"/>
+        <c:axId val="316073104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -2136,7 +2280,11 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
@@ -2170,15 +2318,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="796466344"/>
+        <c:crossAx val="316073664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="796466344"/>
+        <c:axId val="316073664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="250"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2190,11 +2338,30 @@
             </a:ln>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>PV,OP &amp; PV Model (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="796465952"/>
+        <c:crossAx val="316073104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2397,7 +2564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - B'!$D$4:$D$36</c:f>
+              <c:f>'Log - B'!$F$4:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="33"/>
@@ -2621,7 +2788,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - B'!$E$4:$E$36</c:f>
+              <c:f>'Log - B'!$G$4:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="33"/>
@@ -2737,11 +2904,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558694464"/>
-        <c:axId val="558694856"/>
+        <c:axId val="316077024"/>
+        <c:axId val="316077584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558694464"/>
+        <c:axId val="316077024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -2759,12 +2926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558694856"/>
+        <c:crossAx val="316077584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558694856"/>
+        <c:axId val="316077584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +2942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558694464"/>
+        <c:crossAx val="316077024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2822,11 +2989,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Lab</a:t>
+              <a:t>Analysis</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Step Test 40 - 42.5%</a:t>
+              <a:t> of RLS performance during a 40.0-42.5%</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -2846,7 +3013,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Log - C'!$B$3</c:f>
+              <c:f>'Log - C'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2855,12 +3022,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Log - C'!$A$4:$A$46</c:f>
+              <c:f>'Log - C'!$A$4:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2962,171 +3132,117 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1180</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1210</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1240</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - C'!$B$4:$B$46</c:f>
+              <c:f>'Log - C'!$C$4:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>473</c:v>
+                  <c:v>47.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>474</c:v>
+                  <c:v>47.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>483</c:v>
+                  <c:v>48.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>483</c:v>
+                  <c:v>48.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>481</c:v>
+                  <c:v>48.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>483</c:v>
+                  <c:v>48.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>482</c:v>
+                  <c:v>48.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>485</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>483</c:v>
+                  <c:v>48.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>483</c:v>
+                  <c:v>48.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>485</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>492</c:v>
+                  <c:v>49.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>503</c:v>
+                  <c:v>50.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>512</c:v>
+                  <c:v>51.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>513</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>515</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>523</c:v>
+                  <c:v>52.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>538</c:v>
+                  <c:v>53.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>545</c:v>
+                  <c:v>54.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>552</c:v>
+                  <c:v>55.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>555</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>571</c:v>
+                  <c:v>57.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>572</c:v>
+                  <c:v>57.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>577</c:v>
+                  <c:v>57.7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>578</c:v>
+                  <c:v>57.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>578</c:v>
+                  <c:v>57.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>583</c:v>
+                  <c:v>58.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>587</c:v>
+                  <c:v>58.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>588</c:v>
+                  <c:v>58.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>603</c:v>
+                  <c:v>60.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>605</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>606</c:v>
+                  <c:v>60.6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>607</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>607</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>619</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>627</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>627</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3138,7 +3254,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Log - C'!$C$3</c:f>
+              <c:f>'Log - C'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3147,12 +3263,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Log - C'!$A$4:$A$36</c:f>
+              <c:f>'Log - C'!$A$4:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3251,114 +3370,120 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - C'!$C$4:$C$36</c:f>
+              <c:f>'Log - C'!$E$4:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>425</c:v>
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3371,275 +3496,230 @@
           <c:tx>
             <c:v>PV model</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Log - C'!$A$4:$A$46</c:f>
+              <c:f>'Log - C'!$A$5:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>220</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>250</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>280</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>310</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>340</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>370</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>430</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>460</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>490</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>520</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>550</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>580</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>610</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>640</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>670</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>700</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>730</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>760</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>790</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>820</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>850</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>880</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>910</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>940</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>970</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1000</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1180</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1210</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1240</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - C'!$F$5:$F$46</c:f>
+              <c:f>'Log - C'!$H$5:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>471.71428572581016</c:v>
+                  <c:v>47.171428572581014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>474.95740214049619</c:v>
+                  <c:v>47.495740214049619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>493.38410038519135</c:v>
+                  <c:v>49.338410038519129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>483.03999385542875</c:v>
+                  <c:v>48.303999385542873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>478.43601580823758</c:v>
+                  <c:v>47.843601580823758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>485.13624768219643</c:v>
+                  <c:v>48.513624768219636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>481.05515530055317</c:v>
+                  <c:v>48.105515530055321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>487.94223664015732</c:v>
+                  <c:v>48.794223664015732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>481.41091652395073</c:v>
+                  <c:v>48.141091652395076</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>483.00119443928872</c:v>
+                  <c:v>48.300119443928878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>486.78658929691341</c:v>
+                  <c:v>48.678658929691338</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>498.63162189192013</c:v>
+                  <c:v>49.863162189192018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>507.92084051380073</c:v>
+                  <c:v>50.792084051380066</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>505.82190209370486</c:v>
+                  <c:v>50.582190209370481</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>521.85107591186136</c:v>
+                  <c:v>52.185107591186146</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>514.05791173008583</c:v>
+                  <c:v>51.405791173008581</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>517.05898170994271</c:v>
+                  <c:v>51.705898170994267</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>531.64338881319975</c:v>
+                  <c:v>53.164338881319971</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>555.71922962946508</c:v>
+                  <c:v>55.571922962946502</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>552.76193136215022</c:v>
+                  <c:v>55.276193136215021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>559.6956646704092</c:v>
+                  <c:v>55.96956646704092</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>558.21045521693952</c:v>
+                  <c:v>55.821045521693954</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>590.24893392276192</c:v>
+                  <c:v>59.024893392276191</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>573.10365287995444</c:v>
+                  <c:v>57.310365287995452</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>582.67556560649973</c:v>
+                  <c:v>58.267556560649972</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>579.11053129808283</c:v>
+                  <c:v>57.911053129808288</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>578.00025643214576</c:v>
+                  <c:v>57.800025643214568</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>588.63725817108832</c:v>
+                  <c:v>58.863725817108822</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>591.4577819664828</c:v>
+                  <c:v>59.14577819664828</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>589.09691127256417</c:v>
+                  <c:v>58.909691127256416</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>621.06431263767035</c:v>
+                  <c:v>62.106431263767028</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>607.25712570451992</c:v>
+                  <c:v>60.725712570452004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>607.11939730309825</c:v>
+                  <c:v>60.71193973030983</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>603.89091807182217</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>611.41176595433569</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>508.3802470146739</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>606.99933207284937</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>610.80459158792496</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>609.00001231566716</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>618.45164221226685</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>623.44580731150495</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>634.02051112121342</c:v>
+                  <c:v>60.389091807182226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3654,11 +3734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558695640"/>
-        <c:axId val="558696032"/>
+        <c:axId val="315586784"/>
+        <c:axId val="315587344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558695640"/>
+        <c:axId val="315586784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -3668,7 +3748,11 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
@@ -3702,15 +3786,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558696032"/>
+        <c:crossAx val="315587344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558696032"/>
+        <c:axId val="315587344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="250"/>
+          <c:max val="65"/>
+          <c:min val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3722,11 +3807,30 @@
             </a:ln>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>PV,OP &amp; PV Model (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558695640"/>
+        <c:crossAx val="315586784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3772,14 +3876,6 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Predicted</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="el-GR" baseline="0">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3798,7 +3894,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> during a 40 to 42.5% step test</a:t>
+              <a:t> during 40 to 42.5% step test</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -3811,7 +3907,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3819,6 +3915,9 @@
           <c:tx>
             <c:v>α</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Log - C'!$A$4:$A$46</c:f>
@@ -3959,7 +4058,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - C'!$D$4:$D$46</c:f>
+              <c:f>'Log - C'!$F$4:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="43"/>
@@ -4095,7 +4194,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4103,6 +4202,9 @@
           <c:tx>
             <c:v>β</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Log - C'!$A$4:$A$46</c:f>
@@ -4243,7 +4345,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log - C'!$E$4:$E$46</c:f>
+              <c:f>'Log - C'!$G$4:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="43"/>
@@ -4379,7 +4481,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4389,11 +4491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="597929384"/>
-        <c:axId val="597929776"/>
+        <c:axId val="315590704"/>
+        <c:axId val="315591264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="597929384"/>
+        <c:axId val="315590704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -4403,31 +4505,94 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46934706154431427"/>
+              <c:y val="0.88793963254593178"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597929776"/>
+        <c:crossAx val="315591264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="597929776"/>
+        <c:axId val="315591264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>β</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597929384"/>
+        <c:crossAx val="315590704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4453,13 +4618,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -4483,16 +4648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4518,13 +4683,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
@@ -4550,13 +4715,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
@@ -4587,16 +4752,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4619,16 +4784,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4939,15 +5104,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4955,27 +5120,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -4983,16 +5159,29 @@
         <v>84</v>
       </c>
       <c r="C4">
+        <v>8.4</v>
+      </c>
+      <c r="D4">
         <v>350</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.10465116277008057</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>0.21448504983865391</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>1.0065792964778373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -5000,20 +5189,37 @@
         <v>84</v>
       </c>
       <c r="C5">
+        <v>8.4</v>
+      </c>
+      <c r="D5">
         <v>350</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.10454011422481913</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>0.21491019753013849</v>
       </c>
-      <c r="F5" s="1">
-        <f>(B4*D4)+(C4*E4)</f>
-        <v>83.860465116215636</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <f>(C4*F4)+(E4*G4)</f>
+        <v>8.3860465116215632</v>
+      </c>
+      <c r="I5" s="1">
+        <f>C5-((C4*$L$4)+(E4*$L$5))</f>
+        <v>-0.55861353883996046</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>1.4381355669317957E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>70</v>
       </c>
@@ -5021,20 +5227,32 @@
         <v>89</v>
       </c>
       <c r="C6">
+        <v>8.9</v>
+      </c>
+      <c r="D6">
         <v>350</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
         <v>-0.54419671500021471</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>0.38462571976384025</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F5:F32" si="0">(B5*D5)+(C5*E5)</f>
-        <v>83.999938730433271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H32" si="0">(C5*F5)+(E5*G5)</f>
+        <v>8.3999938730433286</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I32" si="1">C6-((C5*$L$4)+(E5*$L$5))</f>
+        <v>-5.8613538839960455E-2</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -5042,20 +5260,32 @@
         <v>86</v>
       </c>
       <c r="C7">
+        <v>8.6</v>
+      </c>
+      <c r="D7">
         <v>350</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2">
         <v>-0.54403763174901476</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>0.3840547270415467</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>86.185494282324981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6185494282324964</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.86190318707888025</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>130</v>
       </c>
@@ -5063,20 +5293,32 @@
         <v>90</v>
       </c>
       <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>350</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2">
         <v>-0.74399313997617034</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>0.4397578867284499</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>87.631918134126082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7631918134126074</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.15992939813552809</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>160</v>
       </c>
@@ -5084,20 +5326,32 @@
         <v>86</v>
       </c>
       <c r="C9">
+        <v>8.6</v>
+      </c>
+      <c r="D9">
         <v>350</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2">
         <v>-0.74308885130908053</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>0.43679250665504887</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>86.955877757102144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6955877757102122</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.96256111672666478</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>190</v>
       </c>
@@ -5105,20 +5359,32 @@
         <v>96</v>
       </c>
       <c r="C10">
+        <v>9.6</v>
+      </c>
+      <c r="D10">
         <v>375</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10">
+        <v>37.5</v>
+      </c>
+      <c r="F10" s="2">
         <v>-1.0756713779045812</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>0.53826295747608199</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>88.971736116686202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8971736116686202</v>
+      </c>
+      <c r="I10" s="1">
+        <f>C10-((C9*$L$4)+(E9*$L$5))</f>
+        <v>0.44007060186447156</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>220</v>
       </c>
@@ -5126,20 +5392,32 @@
         <v>111</v>
       </c>
       <c r="C11">
+        <v>11.1</v>
+      </c>
+      <c r="D11">
         <v>375</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11">
+        <v>37.5</v>
+      </c>
+      <c r="F11" s="2">
         <v>-1.087196671638927</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>0.57434492345012678</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>98.584156774690939</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8584156774690967</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.89753791621333789</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>250</v>
       </c>
@@ -5147,20 +5425,32 @@
         <v>120</v>
       </c>
       <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
         <v>375</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12">
+        <v>37.5</v>
+      </c>
+      <c r="F12" s="2">
         <v>-4.0192495478354351</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <v>1.509937033371699</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>94.700515741876643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4700515741876661</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28766897149658277</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>280</v>
       </c>
@@ -5168,20 +5458,32 @@
         <v>133</v>
       </c>
       <c r="C13">
+        <v>13.3</v>
+      </c>
+      <c r="D13">
         <v>375</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13">
+        <v>37.5</v>
+      </c>
+      <c r="F13" s="2">
         <v>-4.0652548524130179</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <v>1.6555560062577557</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>83.916441774134967</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3916441774134967</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68174760466652984</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>310</v>
       </c>
@@ -5189,20 +5491,32 @@
         <v>138</v>
       </c>
       <c r="C14">
+        <v>13.8</v>
+      </c>
+      <c r="D14">
         <v>375</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14">
+        <v>37.5</v>
+      </c>
+      <c r="F14" s="2">
         <v>-9.1406199167737512E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <v>0.4002766218165934</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>80.154606975727006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0154606975726992</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.12680548075466014</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>340</v>
       </c>
@@ -5210,20 +5524,32 @@
         <v>147</v>
       </c>
       <c r="C15">
+        <v>14.7</v>
+      </c>
+      <c r="D15">
         <v>375</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15">
+        <v>37.5</v>
+      </c>
+      <c r="F15" s="2">
         <v>-0.10049841912611784</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <v>0.42898432943571363</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>137.48967769607475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>13.748967769607475</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26990487100642113</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>370</v>
       </c>
@@ -5231,20 +5557,32 @@
         <v>167</v>
       </c>
       <c r="C16">
+        <v>16.7</v>
+      </c>
+      <c r="D16">
         <v>375</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16">
+        <v>37.5</v>
+      </c>
+      <c r="F16" s="2">
         <v>0.63941697831406863</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <v>0.19466236236998577</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>146.09585592685329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>14.609585592685328</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3639835041763693</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>400</v>
       </c>
@@ -5252,20 +5590,32 @@
         <v>171</v>
       </c>
       <c r="C17">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D17">
         <v>375</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17">
+        <v>37.5</v>
+      </c>
+      <c r="F17" s="2">
         <v>0.64806040498502016</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <v>0.16739657673226899</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>179.78102126719412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>17.978102126719413</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.24917508877930317</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>430</v>
       </c>
@@ -5273,20 +5623,32 @@
         <v>177</v>
       </c>
       <c r="C18">
+        <v>17.7</v>
+      </c>
+      <c r="D18">
         <v>375</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18">
+        <v>37.5</v>
+      </c>
+      <c r="F18" s="2">
         <v>0.71342605020645045</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <v>0.14667653242672254</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>173.59204552703932</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>17.359204552703932</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.1806807370443408E-2</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>460</v>
       </c>
@@ -5294,20 +5656,32 @@
         <v>191</v>
       </c>
       <c r="C19">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D19">
         <v>375</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19">
+        <v>37.5</v>
+      </c>
+      <c r="F19" s="2">
         <v>0.70375983927050234</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <v>0.1771592036215508</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>181.2801105465627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>18.12801105465627</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74424561474285866</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>490</v>
       </c>
@@ -5315,20 +5689,32 @@
         <v>197</v>
       </c>
       <c r="C20">
+        <v>19.7</v>
+      </c>
+      <c r="D20">
         <v>375</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20">
+        <v>37.5</v>
+      </c>
+      <c r="F20" s="2">
         <v>0.65032045843491793</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <v>0.19410421850547499</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>200.85283065874751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>20.085283065874748</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>-6.4965400326116196E-2</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>520</v>
       </c>
@@ -5336,20 +5722,32 @@
         <v>201</v>
       </c>
       <c r="C21">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D21">
         <v>375</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21">
+        <v>37.5</v>
+      </c>
+      <c r="F21" s="2">
         <v>0.65022121833257029</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>0.19441712422715723</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>200.90221225123196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>20.090221225123194</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.26891297821281412</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>550</v>
       </c>
@@ -5357,20 +5755,32 @@
         <v>209</v>
       </c>
       <c r="C22">
+        <v>20.9</v>
+      </c>
+      <c r="D22">
         <v>375</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22">
+        <v>37.5</v>
+      </c>
+      <c r="F22" s="2">
         <v>0.71600260876158717</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <v>0.17355507331033135</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>203.60088647003062</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>20.36008864700306</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12845530319604492</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>580</v>
       </c>
@@ -5378,20 +5788,32 @@
         <v>210</v>
       </c>
       <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
         <v>375</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23">
+        <v>37.5</v>
+      </c>
+      <c r="F23" s="2">
         <v>0.72086040686080755</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <v>0.15824027987303044</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>214.72769772254597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>21.472769772254598</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.57680813398622277</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>610</v>
       </c>
@@ -5399,20 +5821,32 @@
         <v>225</v>
       </c>
       <c r="C24">
+        <v>22.5</v>
+      </c>
+      <c r="D24">
         <v>375</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24">
+        <v>37.5</v>
+      </c>
+      <c r="F24" s="2">
         <v>0.87766996334363367</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <v>0.10850292532012054</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>210.72079039315599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>21.0720790393156</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8225339363659927</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>640</v>
       </c>
@@ -5420,20 +5854,32 @@
         <v>232</v>
       </c>
       <c r="C25">
+        <v>23.2</v>
+      </c>
+      <c r="D25">
         <v>375</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25">
+        <v>37.5</v>
+      </c>
+      <c r="F25" s="2">
         <v>0.88411060625064097</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <v>8.8200085571409181E-2</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>238.16433874736279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>23.816433874736276</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2664991649238289E-2</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>670</v>
       </c>
@@ -5441,20 +5887,32 @@
         <v>236</v>
       </c>
       <c r="C26">
+        <v>23.6</v>
+      </c>
+      <c r="D26">
         <v>375</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26">
+        <v>37.5</v>
+      </c>
+      <c r="F26" s="2">
         <v>0.86474976725626562</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <v>9.4341674088751645E-2</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>238.18869273942715</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>23.818869273942713</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.29194051588524772</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>700</v>
       </c>
@@ -5462,20 +5920,32 @@
         <v>238</v>
       </c>
       <c r="C27">
+        <v>23.8</v>
+      </c>
+      <c r="D27">
         <v>375</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27">
+        <v>37.5</v>
+      </c>
+      <c r="F27" s="2">
         <v>0.86629207767154515</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <v>8.9480137765695814E-2</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>239.45907285576055</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>23.945907285576055</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.49457223447638299</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>730</v>
       </c>
@@ -5483,20 +5953,32 @@
         <v>243</v>
       </c>
       <c r="C28">
+        <v>24.3</v>
+      </c>
+      <c r="D28">
         <v>375</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28">
+        <v>37.5</v>
+      </c>
+      <c r="F28" s="2">
         <v>0.89374028737101552</v>
       </c>
-      <c r="E28" s="2">
+      <c r="G28" s="2">
         <v>8.0772563590933294E-2</v>
       </c>
-      <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>239.73256614796367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>23.973256614796369</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.19588809377195204</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>760</v>
       </c>
@@ -5504,20 +5986,32 @@
         <v>256</v>
       </c>
       <c r="C29">
+        <v>25.6</v>
+      </c>
+      <c r="D29">
         <v>375</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29">
+        <v>37.5</v>
+      </c>
+      <c r="F29" s="2">
         <v>0.8846543635936005</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G29" s="2">
         <v>0.10941090866863457</v>
       </c>
-      <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>247.46860117775674</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>24.746860117775675</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60082225798912958</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>790</v>
       </c>
@@ -5525,20 +6019,32 @@
         <v>257</v>
       </c>
       <c r="C30">
+        <v>25.7</v>
+      </c>
+      <c r="D30">
         <v>375</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30">
+        <v>37.5</v>
+      </c>
+      <c r="F30" s="2">
         <v>0.80802604532974598</v>
       </c>
-      <c r="E30" s="2">
+      <c r="G30" s="2">
         <v>0.13372154998532906</v>
       </c>
-      <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>267.50060783069966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>26.750060783069969</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.60773082743206075</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>820</v>
       </c>
@@ -5546,20 +6052,32 @@
         <v>261</v>
       </c>
       <c r="C31">
+        <v>26.1</v>
+      </c>
+      <c r="D31">
         <v>375</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31">
+        <v>37.5</v>
+      </c>
+      <c r="F31" s="2">
         <v>0.80457526486279496</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G31" s="2">
         <v>0.14459784542672091</v>
       </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>257.80827489424314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>25.780827489424311</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.30838875707983959</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>850</v>
       </c>
@@ -5567,18 +6085,47 @@
         <v>264</v>
       </c>
       <c r="C32">
+        <v>26.4</v>
+      </c>
+      <c r="D32">
         <v>375</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32">
+        <v>37.5</v>
+      </c>
+      <c r="F32" s="2">
         <v>0.80303799545249566</v>
       </c>
-      <c r="E32" s="2">
+      <c r="G32" s="2">
         <v>0.14508556807985784</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>264.21833616420986</v>
-      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>26.421833616420983</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.41102047567098055</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I33" s="5">
+        <f>SUM(I5:I32)</f>
+        <v>-4.0856207306205761E-14</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5589,43 +6136,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F36"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -5633,16 +6189,30 @@
         <v>296</v>
       </c>
       <c r="C4">
+        <f>B4/10</f>
+        <v>29.6</v>
+      </c>
+      <c r="D4">
         <v>375</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4">
+        <f>D4/10</f>
+        <v>37.5</v>
+      </c>
+      <c r="F4" s="2">
         <v>-0.50000000078085827</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>1.1920000006261031</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>0.96944093732869707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -5650,20 +6220,39 @@
         <v>295</v>
       </c>
       <c r="C5">
+        <f t="shared" ref="C5:C36" si="0">B5/10</f>
+        <v>29.5</v>
+      </c>
+      <c r="D5">
         <v>375</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5">
+        <f t="shared" ref="E5:E36" si="1">D5/10</f>
+        <v>37.5</v>
+      </c>
+      <c r="F5" s="2">
         <v>-0.47209493781941397</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>1.1594864875884248</v>
       </c>
-      <c r="F5" s="1">
-        <f>(B4*D4)+(C4*E4)</f>
-        <v>299.00000000365463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <f>(C4*F4)+(E4*G4)</f>
+        <v>29.900000000365459</v>
+      </c>
+      <c r="I5" s="1">
+        <f>C5-((C4*$L$4)+(E4*$L$5))</f>
+        <v>-0.73023929465976067</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>4.0927667992808642E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>70</v>
       </c>
@@ -5671,20 +6260,34 @@
         <v>298</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>29.8</v>
+      </c>
+      <c r="D6">
         <v>375</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="F6" s="2">
         <v>-0.55634579325538636</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>1.2320921135224374</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6:F36" si="0">(B5*D5)+(C5*E5)</f>
-        <v>295.53942618893211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H36" si="2">(C5*F5)+(E5*G5)</f>
+        <v>29.55394261889322</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I35" si="3">C6-((C5*$L$4)+(E5*$L$5))</f>
+        <v>-0.33329520092688725</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -5692,20 +6295,34 @@
         <v>303</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>30.3</v>
+      </c>
+      <c r="D7">
         <v>375</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="F7" s="2">
         <v>-0.60774890726761721</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>1.291287450920914</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>296.2434961808089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>29.624349618080888</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.12412748212549829</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>130</v>
       </c>
@@ -5713,20 +6330,34 @@
         <v>298</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>29.8</v>
+      </c>
+      <c r="D8">
         <v>375</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="F8" s="2">
         <v>-0.50925136782749114</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>1.2060506111770688</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>300.08487519325473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>30.00848751932547</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.1088479507898477</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>160</v>
       </c>
@@ -5734,20 +6365,34 @@
         <v>308</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="D9">
         <v>375</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="F9" s="2">
         <v>-0.56440353288169987</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>1.2702016055540271</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>300.51207157880845</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>30.051207157880842</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.37587251787450171</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>190</v>
       </c>
@@ -5755,20 +6400,34 @@
         <v>300</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>375</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="F10" s="2">
         <v>-0.37464574286138069</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>1.1076136922754611</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>302.48931395519662</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>30.248931395519655</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.3935684194541942</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>220</v>
       </c>
@@ -5776,20 +6435,34 @@
         <v>309</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>30.9</v>
+      </c>
+      <c r="D11">
         <v>375</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="F11" s="2">
         <v>-0.41807144009177377</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>1.1585508124380763</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>302.96141174488372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>30.296141174488376</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.28198433040876125</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>250</v>
       </c>
@@ -5797,20 +6470,34 @@
         <v>318</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>31.8</v>
+      </c>
+      <c r="D12">
         <v>400</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="2">
         <v>-1.6760374458493719</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <v>2.2296325678345816</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>305.27247967592052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>30.527247967592057</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30948748681293736</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>280</v>
       </c>
@@ -5818,20 +6505,34 @@
         <v>326</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
+        <v>32.6</v>
+      </c>
+      <c r="D13">
         <v>400</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="2">
         <v>-1.4615469302889452</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <v>1.975839538495253</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>358.87311935373248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>35.887311935373241</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13467147323508755</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>310</v>
       </c>
@@ -5839,20 +6540,34 @@
         <v>327</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D14">
         <v>400</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F14" s="2">
         <v>-2.659560234730141</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <v>2.985711314858742</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>313.87151612390505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>31.387151612390497</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.54088127662786434</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>340</v>
       </c>
@@ -5860,20 +6575,34 @@
         <v>341</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
+        <v>34.1</v>
+      </c>
+      <c r="D15">
         <v>400</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F15" s="2">
         <v>-2.7683996907074921</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <v>3.1157320968050439</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>324.60832918674078</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>32.460832918674058</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.76217462963926152</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>370</v>
       </c>
@@ -5881,20 +6610,34 @@
         <v>350</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D16">
         <v>400</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F16" s="2">
         <v>4.7053218047059939</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <v>-3.1378696565110782</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>302.2685441907629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>30.226854419076261</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30495731737908471</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>400</v>
       </c>
@@ -5902,20 +6645,34 @@
         <v>358</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D17">
         <v>400</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F17" s="2">
         <v>4.9735626337854333</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <v>-3.4569166634864388</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>391.7147690426666</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>39.171476904266669</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.23246047378325585</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>430</v>
       </c>
@@ -5923,20 +6680,34 @@
         <v>360</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D18">
         <v>400</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F18" s="2">
         <v>3.2419009428170567</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <v>-2.0012854831682017</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>397.76875750060958</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>39.776875750060952</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.34309227607969461</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>460</v>
       </c>
@@ -5944,20 +6715,34 @@
         <v>367</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D19">
         <v>400</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F19" s="2">
         <v>3.2381765001848151</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <v>-1.9968583236556541</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>366.57014614685977</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>36.657014614685977</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1630195364545628</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>490</v>
       </c>
@@ -5965,20 +6750,34 @@
         <v>374</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>37.4</v>
+      </c>
+      <c r="D20">
         <v>400</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F20" s="2">
         <v>2.7259469930306883</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <v>-1.5660039466703972</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>389.66744610556555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>38.96674461055656</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18441088032447084</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>520</v>
       </c>
@@ -5986,20 +6785,34 @@
         <v>386</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>38.6</v>
+      </c>
+      <c r="D21">
         <v>400</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F21" s="2">
         <v>2.7960748522126098</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>-1.6493374727724832</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>393.10259672531856</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>39.310259672531849</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.70580222419439309</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>550</v>
       </c>
@@ -6007,20 +6820,34 @@
         <v>388</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D22">
         <v>400</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F22" s="2">
         <v>2.1582296431331476</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <v>-1.1126442465606758</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>419.54990384507403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>41.954990384507411</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.25752690060005534</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>580</v>
       </c>
@@ -6028,20 +6855,34 @@
         <v>394</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>39.4</v>
+      </c>
+      <c r="D23">
         <v>400</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F23" s="2">
         <v>2.1391523006218272</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <v>-1.0899760956484255</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>392.33540291139087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>39.233540291139093</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14858491193421486</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>610</v>
       </c>
@@ -6049,20 +6890,34 @@
         <v>396</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
+        <v>39.6</v>
+      </c>
+      <c r="D24">
         <v>400</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F24" s="2">
         <v>1.9504929837352538</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <v>-0.93122303247003746</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>406.83556818562965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>40.683556818562977</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.23307965046300438</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>640</v>
       </c>
@@ -6070,20 +6925,34 @@
         <v>406</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
+        <v>40.6</v>
+      </c>
+      <c r="D25">
         <v>400</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F25" s="2">
         <v>1.8735925439183336</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <v>-0.83985069018974712</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>399.90600857114555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>39.990600857114551</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.57303216207125018</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>670</v>
       </c>
@@ -6091,20 +6960,34 @@
         <v>415</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="D26">
         <v>400</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F26" s="2">
         <v>1.7333131343743102</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <v>-0.72180475082177142</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>424.7382967549446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>42.473829675494464</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.50359122474255713</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>700</v>
       </c>
@@ -6112,20 +6995,34 @@
         <v>417</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
+        <v>41.7</v>
+      </c>
+      <c r="D27">
         <v>400</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F27" s="2">
         <v>1.959061854792729</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <v>-0.99004071027156648</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>430.60305043663016</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>43.060305043663007</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.16890561885326605</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>730</v>
       </c>
@@ -6133,20 +7030,34 @@
         <v>421</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
+        <v>42.1</v>
+      </c>
+      <c r="D28">
         <v>400</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F28" s="2">
         <v>1.9601496886511942</v>
       </c>
-      <c r="E28" s="2">
+      <c r="G28" s="2">
         <v>-0.99095610620187768</v>
       </c>
-      <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>420.91250933994138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>42.091250933994147</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7206193680987099E-2</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>760</v>
       </c>
@@ -6154,20 +7065,34 @@
         <v>424</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
+        <v>42.4</v>
+      </c>
+      <c r="D29">
         <v>400</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F29" s="2">
         <v>2.0493208145044415</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G29" s="2">
         <v>-1.0969153823807059</v>
       </c>
-      <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>428.84057644140165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>42.884057644140171</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.0570181250492396E-2</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>790</v>
       </c>
@@ -6175,20 +7100,34 @@
         <v>425</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="D30">
         <v>400</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F30" s="2">
         <v>1.9904739762173358</v>
       </c>
-      <c r="E30" s="2">
+      <c r="G30" s="2">
         <v>-1.0473995943094527</v>
       </c>
-      <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>430.14587239760078</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>43.014587239760075</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.24140246244909491</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>820</v>
       </c>
@@ -6196,20 +7135,34 @@
         <v>433</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
+        <v>43.3</v>
+      </c>
+      <c r="D31">
         <v>400</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F31" s="2">
         <v>1.8710691062715317</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G31" s="2">
         <v>-0.90550418710361569</v>
       </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>426.99160216858661</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>42.699160216858665</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46165344381802953</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>850</v>
       </c>
@@ -6217,20 +7170,34 @@
         <v>435</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="D32">
         <v>400</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F32" s="2">
         <v>1.7366099666354982</v>
       </c>
-      <c r="E32" s="2">
+      <c r="G32" s="2">
         <v>-0.79237434372878168</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>447.97124817412697</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>44.797124817412694</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.11389930604492093</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>880</v>
       </c>
@@ -6238,20 +7205,34 @@
         <v>444</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
+        <v>44.4</v>
+      </c>
+      <c r="D33">
         <v>400</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F33" s="2">
         <v>1.5997459665507825</v>
       </c>
-      <c r="E33" s="2">
+      <c r="G33" s="2">
         <v>-0.62971666814864524</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>438.47559799492899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>43.847559799492906</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.59221250648933221</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>910</v>
       </c>
@@ -6259,20 +7240,34 @@
         <v>441</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
+        <v>44.1</v>
+      </c>
+      <c r="D34">
         <v>400</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F34" s="2">
         <v>1.4378894799737865</v>
       </c>
-      <c r="E34" s="2">
+      <c r="G34" s="2">
         <v>-0.49355078545954112</v>
       </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>458.40054188908925</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <f t="shared" si="2"/>
+        <v>45.840054188908937</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.58028433710649097</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>940</v>
       </c>
@@ -6280,20 +7275,34 @@
         <v>450</v>
       </c>
       <c r="C35">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D35">
         <v>400</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F35" s="2">
         <v>1.0512133856138284</v>
       </c>
-      <c r="E35" s="2">
+      <c r="G35" s="2">
         <v>-3.3943745471413045E-2</v>
       </c>
-      <c r="F35" s="1">
-        <f t="shared" si="0"/>
-        <v>436.68894648462333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <f t="shared" si="2"/>
+        <v>43.668894648462341</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>0.61054794409211866</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>970</v>
       </c>
@@ -6301,17 +7310,37 @@
         <v>451</v>
       </c>
       <c r="C36">
+        <f t="shared" si="0"/>
+        <v>45.1</v>
+      </c>
+      <c r="D36">
         <v>400</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F36" s="2">
         <v>0.97663640297849375</v>
       </c>
-      <c r="E36" s="2">
+      <c r="G36" s="2">
         <v>2.8786922906184356E-2</v>
       </c>
-      <c r="F36" s="1">
-        <f t="shared" si="0"/>
-        <v>459.46852533765752</v>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>45.946852533765757</v>
+      </c>
+      <c r="I36" s="1">
+        <f>C36-((C35*$L$4)+(E35*$L$5))</f>
+        <v>-0.16194889950370595</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="5">
+        <f>SUM(I5:I36)</f>
+        <v>2.8421709430404007E-14</v>
       </c>
     </row>
   </sheetData>
@@ -6322,15 +7351,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6338,27 +7367,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -6366,16 +7401,30 @@
         <v>473</v>
       </c>
       <c r="C4">
+        <f>B4/10</f>
+        <v>47.3</v>
+      </c>
+      <c r="D4">
         <v>400</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4">
+        <f>D4/10</f>
+        <v>40</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.92857142472871779</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>8.1250004572816614E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>0.91186695680459018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -6383,20 +7432,43 @@
         <v>474</v>
       </c>
       <c r="C5">
+        <f t="shared" ref="C5:C46" si="0">B5/10</f>
+        <v>47.4</v>
+      </c>
+      <c r="D5">
         <v>400</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5">
+        <f t="shared" ref="E5:E46" si="1">D5/10</f>
+        <v>40</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.95088540958612677</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>6.0594294991680224E-2</v>
       </c>
-      <c r="F5" s="1">
-        <f>(B4*D4)+(C4*E4)</f>
-        <v>471.71428572581016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <f>(C4*F4)+(E4*G4)</f>
+        <v>47.171428572581014</v>
+      </c>
+      <c r="I5" s="1">
+        <f>C5-((C4*$M$4)+(E4*$M$5))</f>
+        <v>0.26280093612264466</v>
+      </c>
+      <c r="J5" s="1">
+        <f>H5-C5</f>
+        <v>-0.22857142741898429</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>0.10014730017550608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>70</v>
       </c>
@@ -6404,20 +7476,38 @@
         <v>483</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>48.3</v>
+      </c>
+      <c r="D6">
         <v>400</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F6" s="2">
         <v>1.1455965735727462</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>-0.14984761162611274</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6:F46" si="0">(B5*D5)+(C5*E5)</f>
-        <v>474.95740214049619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <f>(C5*F5)+(E5*G5)</f>
+        <v>47.495740214049619</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I35" si="2">C6-((C5*$M$4)+(E5*$M$5))</f>
+        <v>1.0716142404421802</v>
+      </c>
+      <c r="J6" s="1">
+        <f>H6-C6</f>
+        <v>-0.80425978595037861</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -6425,20 +7515,41 @@
         <v>483</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>48.3</v>
+      </c>
+      <c r="D7">
         <v>400</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F7" s="2">
         <v>1.0542791245936975</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>-6.5442058308317827E-2</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>493.38410038519135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <f>(C6*F6)+(E6*G6)</f>
+        <v>49.338410038519129</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25093397931804873</v>
+      </c>
+      <c r="J7" s="1">
+        <f>H7-C7</f>
+        <v>1.0384100385191317</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>130</v>
       </c>
@@ -6446,20 +7557,41 @@
         <v>481</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>48.1</v>
+      </c>
+      <c r="D8">
         <v>425</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F8" s="2">
         <v>1.0142640218843182</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>-2.2176420513222231E-2</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>483.03999385542875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <f>(C7*F7)+(E7*G7)</f>
+        <v>48.303999385542873</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0933979318052991E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <f>H8-C8</f>
+        <v>0.20399938554287189</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>160</v>
       </c>
@@ -6467,20 +7599,42 @@
         <v>483</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>48.3</v>
+      </c>
+      <c r="D9">
         <v>425</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F9" s="2">
         <v>1.0664856425419726</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>-7.0532512154297372E-2</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>478.43601580823758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <f>(C8*F8)+(E8*G8)</f>
+        <v>47.843601580823758</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18293912024020642</v>
+      </c>
+      <c r="J9" s="1">
+        <f>H9-C9</f>
+        <v>-0.45639841917623869</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9">
+        <f>M7-M4</f>
+        <v>0.14413304319540987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>190</v>
       </c>
@@ -6488,20 +7642,42 @@
         <v>482</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>48.2</v>
+      </c>
+      <c r="D10">
         <v>425</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F10" s="2">
         <v>0.93526787621873753</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>7.1190679913227473E-2</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>485.13624768219643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <f>(C9*F9)+(E9*G9)</f>
+        <v>48.513624768219636</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.9434271120713902E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <f>H10-C10</f>
+        <v>0.3136247682196327</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10">
+        <f>M5-M8</f>
+        <v>5.8147300175506074E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>220</v>
       </c>
@@ -6509,20 +7685,38 @@
         <v>485</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="D11">
         <v>425</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.97978035271039821</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>2.9997095472033407E-2</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>481.05515530055317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <f>(C10*F10)+(E10*G10)</f>
+        <v>48.105515530055321</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29175242455974626</v>
+      </c>
+      <c r="J11" s="1">
+        <f>H11-C11</f>
+        <v>-0.39448446994467901</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>250</v>
       </c>
@@ -6530,20 +7724,38 @@
         <v>483</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>48.3</v>
+      </c>
+      <c r="D12">
         <v>425</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F12" s="2">
         <v>0.78691327348067019</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <v>0.23842777748891061</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>487.94223664015732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <f>(C11*F11)+(E11*G11)</f>
+        <v>48.794223664015732</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.18180766248163138</v>
+      </c>
+      <c r="J12" s="1">
+        <f>H12-C12</f>
+        <v>0.4942236640157347</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>280</v>
       </c>
@@ -6551,20 +7763,38 @@
         <v>483</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
+        <v>48.3</v>
+      </c>
+      <c r="D13">
         <v>425</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F13" s="2">
         <v>0.80459829894243484</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <v>0.22207109658845348</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>481.41091652395073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <f>(C12*F12)+(E12*G12)</f>
+        <v>48.141091652395076</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6572887928041382E-4</v>
+      </c>
+      <c r="J13" s="1">
+        <f>H13-C13</f>
+        <v>-0.15890834760492112</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>310</v>
       </c>
@@ -6572,20 +7802,38 @@
         <v>485</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="D14">
         <v>425</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F14" s="2">
         <v>0.89017003875673517</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <v>0.12953910705858077</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>483.00119443928872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <f>(C13*F13)+(E13*G13)</f>
+        <v>48.300119443928878</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20056572887928326</v>
+      </c>
+      <c r="J14" s="1">
+        <f>H14-C14</f>
+        <v>-0.19988055607112187</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>340</v>
       </c>
@@ -6593,20 +7841,38 @@
         <v>492</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
+        <v>49.2</v>
+      </c>
+      <c r="D15">
         <v>425</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F15" s="2">
         <v>0.94678286422418056</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <v>7.7210476926172486E-2</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>486.78658929691341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <f>(C14*F14)+(E14*G14)</f>
+        <v>48.678658929691338</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7181923375183743</v>
+      </c>
+      <c r="J15" s="1">
+        <f>H15-C15</f>
+        <v>-0.52134107030866517</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>370</v>
       </c>
@@ -6614,20 +7880,38 @@
         <v>500</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D16">
         <v>425</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F16" s="2">
         <v>0.98950762154266303</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <v>3.0981246452868635E-2</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>498.63162189192013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <f>(C15*F15)+(E15*G15)</f>
+        <v>49.863162189192018</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87988546775515886</v>
+      </c>
+      <c r="J16" s="1">
+        <f>H16-C16</f>
+        <v>-0.13683781080798241</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>400</v>
       </c>
@@ -6635,20 +7919,38 @@
         <v>503</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>50.3</v>
+      </c>
+      <c r="D17">
         <v>425</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F17" s="2">
         <v>0.94362929911603777</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <v>7.3356152090206711E-2</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>507.92084051380073</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <f>(C16*F16)+(E16*G16)</f>
+        <v>50.792084051380066</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45039190231148041</v>
+      </c>
+      <c r="J17" s="1">
+        <f>H17-C17</f>
+        <v>0.49208405138006839</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>430</v>
       </c>
@@ -6656,20 +7958,38 @@
         <v>512</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>51.2</v>
+      </c>
+      <c r="D18">
         <v>425</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F18" s="2">
         <v>1.0893936654701344</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <v>-8.4514072491405662E-2</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>505.82190209370486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <f>(C17*F17)+(E17*G17)</f>
+        <v>50.582190209370481</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0768318152701113</v>
+      </c>
+      <c r="J18" s="1">
+        <f>H18-C18</f>
+        <v>-0.61780979062952213</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>460</v>
       </c>
@@ -6677,20 +7997,38 @@
         <v>513</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>51.3</v>
+      </c>
+      <c r="D19">
         <v>425</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F19" s="2">
         <v>1.0159049164197076</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <v>-1.6708965631115721E-2</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>521.85107591186136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <f>(C18*F18)+(E18*G18)</f>
+        <v>52.185107591186146</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.356151554145967</v>
+      </c>
+      <c r="J19" s="1">
+        <f>H19-C19</f>
+        <v>0.88510759118614857</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>490</v>
       </c>
@@ -6698,20 +8036,38 @@
         <v>515</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>51.5</v>
+      </c>
+      <c r="D20">
         <v>425</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F20" s="2">
         <v>1.0336273969999548</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <v>-3.5903829988315344E-2</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>514.05791173008583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <f>(C19*F19)+(E19*G19)</f>
+        <v>51.405791173008581</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46496485846552105</v>
+      </c>
+      <c r="J20" s="1">
+        <f>H20-C20</f>
+        <v>-9.4208826991419414E-2</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>520</v>
       </c>
@@ -6719,20 +8075,38 @@
         <v>523</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>52.3</v>
+      </c>
+      <c r="D21">
         <v>425</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F21" s="2">
         <v>1.0821773049010197</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>-8.078903917654956E-2</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>517.05898170994271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <f>(C20*F20)+(E20*G20)</f>
+        <v>51.705898170994267</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0825914671045922</v>
+      </c>
+      <c r="J21" s="1">
+        <f>H21-C21</f>
+        <v>-0.59410182900573005</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>550</v>
       </c>
@@ -6740,20 +8114,38 @@
         <v>538</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>53.8</v>
+      </c>
+      <c r="D22">
         <v>425</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F22" s="2">
         <v>1.1821801075377252</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <v>-0.18892627817842608</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>531.64338881319975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <f>(C21*F21)+(E21*G21)</f>
+        <v>53.164338881319971</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8530979016609308</v>
+      </c>
+      <c r="J22" s="1">
+        <f>H22-C22</f>
+        <v>-0.6356611186800265</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>580</v>
       </c>
@@ -6761,20 +8153,38 @@
         <v>545</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+      <c r="D23">
         <v>425</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F23" s="2">
         <v>1.1082102704415182</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <v>-0.12050039065524047</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>555.71922962946508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <f>(C22*F22)+(E22*G22)</f>
+        <v>55.571922962946502</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1852974664540454</v>
+      </c>
+      <c r="J23" s="1">
+        <f>H23-C23</f>
+        <v>1.0719229629465019</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>610</v>
       </c>
@@ -6782,20 +8192,38 @@
         <v>552</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
+        <v>55.2</v>
+      </c>
+      <c r="D24">
         <v>425</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F24" s="2">
         <v>1.0993139193913914</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <v>-0.11088380902032677</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>552.76193136215022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <f>(C23*F23)+(E23*G23)</f>
+        <v>55.276193136215021</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2469905966908357</v>
+      </c>
+      <c r="J24" s="1">
+        <f>H24-C24</f>
+        <v>7.6193136215017887E-2</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>640</v>
       </c>
@@ -6803,20 +8231,38 @@
         <v>555</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+      <c r="D25">
         <v>425</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F25" s="2">
         <v>1.0697507641219477</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <v>-8.3532279695862188E-2</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>559.6956646704092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <f>(C24*F24)+(E24*G24)</f>
+        <v>55.96956646704092</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90868372692760602</v>
+      </c>
+      <c r="J25" s="1">
+        <f>H25-C25</f>
+        <v>0.46956646704092009</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>670</v>
       </c>
@@ -6824,20 +8270,38 @@
         <v>571</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
+        <v>57.1</v>
+      </c>
+      <c r="D26">
         <v>425</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F26" s="2">
         <v>1.203401810613153</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <v>-0.22798470573493748</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>558.21045521693952</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <f>(C25*F25)+(E25*G25)</f>
+        <v>55.821045521693954</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2351236398862326</v>
+      </c>
+      <c r="J26" s="1">
+        <f>H26-C26</f>
+        <v>-1.2789544783060478</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>700</v>
       </c>
@@ -6845,20 +8309,38 @@
         <v>572</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
+        <v>57.2</v>
+      </c>
+      <c r="D27">
         <v>425</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F27" s="2">
         <v>1.1007547267953468</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <v>-0.13300717846349144</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>590.24893392276192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <f>(C26*F26)+(E26*G26)</f>
+        <v>59.024893392276191</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87613650899889706</v>
+      </c>
+      <c r="J27" s="1">
+        <f>H27-C27</f>
+        <v>1.8248933922761879</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>730</v>
       </c>
@@ -6866,20 +8348,38 @@
         <v>577</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
+        <v>57.7</v>
+      </c>
+      <c r="D28">
         <v>425</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F28" s="2">
         <v>1.1353207235173528</v>
       </c>
-      <c r="E28" s="2">
+      <c r="G28" s="2">
         <v>-0.17036351026591262</v>
       </c>
-      <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>573.10365287995444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <f>(C27*F27)+(E27*G27)</f>
+        <v>57.310365287995452</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2849498133184341</v>
+      </c>
+      <c r="J28" s="1">
+        <f>H28-C28</f>
+        <v>-0.38963471200455047</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>760</v>
       </c>
@@ -6887,20 +8387,38 @@
         <v>578</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
+        <v>57.8</v>
+      </c>
+      <c r="D29">
         <v>425</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F29" s="2">
         <v>1.1098762048799973</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G29" s="2">
         <v>-0.14681862381777785</v>
       </c>
-      <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>582.67556560649973</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <f>(C28*F28)+(E28*G28)</f>
+        <v>58.267556560649972</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92901633491612756</v>
+      </c>
+      <c r="J29" s="1">
+        <f>H29-C29</f>
+        <v>0.46755656064997453</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>790</v>
       </c>
@@ -6908,20 +8426,38 @@
         <v>578</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
+        <v>57.8</v>
+      </c>
+      <c r="D30">
         <v>425</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F30" s="2">
         <v>1.1005241866026712</v>
       </c>
-      <c r="E30" s="2">
+      <c r="G30" s="2">
         <v>-0.1367122904098782</v>
       </c>
-      <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>579.11053129808283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <f>(C29*F29)+(E29*G29)</f>
+        <v>57.911053129808288</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83782963923567877</v>
+      </c>
+      <c r="J30" s="1">
+        <f>H30-C30</f>
+        <v>0.11105312980829041</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>820</v>
       </c>
@@ -6929,20 +8465,38 @@
         <v>583</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
+        <v>58.3</v>
+      </c>
+      <c r="D31">
         <v>425</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F31" s="2">
         <v>1.1275889818163165</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G31" s="2">
         <v>-0.16175792524193933</v>
       </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>578.00025643214576</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <f>(C30*F30)+(E30*G30)</f>
+        <v>57.800025643214568</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3378296392356788</v>
+      </c>
+      <c r="J31" s="1">
+        <f>H31-C31</f>
+        <v>-0.49997435678542956</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>850</v>
       </c>
@@ -6950,20 +8504,38 @@
         <v>587</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
+        <v>58.7</v>
+      </c>
+      <c r="D32">
         <v>425</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F32" s="2">
         <v>1.1143609377512305</v>
       </c>
-      <c r="E32" s="2">
+      <c r="G32" s="2">
         <v>-0.14746373763173987</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>588.63725817108832</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <f>(C31*F31)+(E31*G31)</f>
+        <v>58.863725817108822</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2818961608333836</v>
+      </c>
+      <c r="J32" s="1">
+        <f>H32-C32</f>
+        <v>0.16372581710881917</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>880</v>
       </c>
@@ -6971,20 +8543,38 @@
         <v>588</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
+        <v>58.8</v>
+      </c>
+      <c r="D33">
         <v>425</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F33" s="2">
         <v>1.0965105500371548</v>
       </c>
-      <c r="E33" s="2">
+      <c r="G33" s="2">
         <v>-0.13094421682184196</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>591.4577819664828</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <f>(C32*F32)+(E32*G32)</f>
+        <v>59.14577819664828</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0171493781115402</v>
+      </c>
+      <c r="J33" s="1">
+        <f>H33-C33</f>
+        <v>0.34577819664828269</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>910</v>
       </c>
@@ -6992,20 +8582,38 @@
         <v>603</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
+        <v>60.3</v>
+      </c>
+      <c r="D34">
         <v>425</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F34" s="2">
         <v>1.2044598716754737</v>
       </c>
-      <c r="E34" s="2">
+      <c r="G34" s="2">
         <v>-0.24758821172385959</v>
       </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>589.09691127256417</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <f>(C33*F33)+(E33*G33)</f>
+        <v>58.909691127256416</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4259626824310914</v>
+      </c>
+      <c r="J34" s="1">
+        <f>H34-C34</f>
+        <v>-1.3903088727435815</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>940</v>
       </c>
@@ -7013,20 +8621,38 @@
         <v>605</v>
       </c>
       <c r="C35">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+      <c r="D35">
         <v>425</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F35" s="2">
         <v>1.1278491952426477</v>
       </c>
-      <c r="E35" s="2">
+      <c r="G35" s="2">
         <v>-0.17668620568772211</v>
       </c>
-      <c r="F35" s="1">
-        <f t="shared" si="0"/>
-        <v>621.06431263767035</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <f>(C34*F34)+(E34*G34)</f>
+        <v>62.106431263767028</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="2"/>
+        <v>1.258162247224206</v>
+      </c>
+      <c r="J35" s="1">
+        <f>H35-C35</f>
+        <v>1.6064312637670284</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>970</v>
       </c>
@@ -7034,20 +8660,38 @@
         <v>606</v>
       </c>
       <c r="C36">
+        <f t="shared" si="0"/>
+        <v>60.6</v>
+      </c>
+      <c r="D36">
         <v>425</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F36" s="2">
         <v>1.1192273533504871</v>
       </c>
-      <c r="E36" s="2">
+      <c r="G36" s="2">
         <v>-0.16737030312305137</v>
       </c>
-      <c r="F36" s="1">
-        <f t="shared" si="0"/>
-        <v>607.25712570451992</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <f>(C35*F35)+(E35*G35)</f>
+        <v>60.725712570452004</v>
+      </c>
+      <c r="I36" s="1">
+        <f>C36-((C35*$M$4)+(E35*$M$5))</f>
+        <v>1.1757888558632814</v>
+      </c>
+      <c r="J36" s="1">
+        <f>H36-C36</f>
+        <v>0.12571257045200213</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1000</v>
       </c>
@@ -7055,20 +8699,36 @@
         <v>605</v>
       </c>
       <c r="C37">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+      <c r="D37">
         <v>425</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F37" s="2">
         <v>1.1092618572006565</v>
       </c>
-      <c r="E37" s="2">
+      <c r="G37" s="2">
         <v>-0.15814707184605878</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" si="0"/>
-        <v>607.11939730309825</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <f>(C36*F36)+(E36*G36)</f>
+        <v>60.71193973030983</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" ref="I37:I46" si="3">C37-((C36*$M$4)+(E36*$M$5))</f>
+        <v>0.9846021601828312</v>
+      </c>
+      <c r="J37" s="1">
+        <f>H37-C37</f>
+        <v>0.2119397303098296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1030</v>
       </c>
@@ -7076,20 +8736,37 @@
         <v>608</v>
       </c>
       <c r="C38">
+        <f t="shared" si="0"/>
+        <v>60.8</v>
+      </c>
+      <c r="D38">
         <v>425</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="F38" s="2">
         <v>1.1374404626986887</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>-0.18859302439168721</v>
       </c>
-      <c r="F38" s="1">
-        <f t="shared" si="0"/>
-        <v>603.89091807182217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <f>(C37*F37)+(E37*G37)</f>
+        <v>60.389091807182226</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3757888558632771</v>
+      </c>
+      <c r="J38" s="1">
+        <f>H38-C38</f>
+        <v>-0.41090819281777158</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1060</v>
       </c>
@@ -7097,20 +8774,37 @@
         <v>607</v>
       </c>
       <c r="C39">
+        <f t="shared" si="0"/>
+        <v>60.7</v>
+      </c>
+      <c r="D39">
         <v>1000</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F39" s="2">
         <v>1.1168881040204619</v>
       </c>
-      <c r="E39" s="2">
+      <c r="G39" s="2">
         <v>-0.16957083212574645</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="0"/>
-        <v>611.41176595433569</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <f>(C38*F38)+(E38*G38)</f>
+        <v>61.141176595433564</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="3"/>
+        <v>1.002228768821908</v>
+      </c>
+      <c r="J39" s="1">
+        <f>H39-C39</f>
+        <v>0.44117659543356069</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1090</v>
       </c>
@@ -7118,20 +8812,37 @@
         <v>607</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
+        <v>60.7</v>
+      </c>
+      <c r="D40">
         <v>1000</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F40" s="2">
         <v>0.90858563409684501</v>
       </c>
-      <c r="E40" s="2">
+      <c r="G40" s="2">
         <v>5.5487852176064528E-2</v>
       </c>
-      <c r="F40" s="1">
-        <f t="shared" si="0"/>
-        <v>508.3802470146739</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <f>(C39*F39)+(E39*G39)</f>
+        <v>50.83802470146739</v>
+      </c>
+      <c r="I40" s="1">
+        <f>C40-((C39*$M$4)+(E39*$M$5))</f>
+        <v>-4.6650542955892291</v>
+      </c>
+      <c r="J40" s="1">
+        <f>H40-C40</f>
+        <v>-9.861975298532613</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1120</v>
       </c>
@@ -7139,20 +8850,37 @@
         <v>609</v>
       </c>
       <c r="C41">
+        <f t="shared" si="0"/>
+        <v>60.9</v>
+      </c>
+      <c r="D41">
         <v>1000</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F41" s="2">
         <v>0.90230511360343268</v>
       </c>
-      <c r="E41" s="2">
+      <c r="G41" s="2">
         <v>6.1300777403434474E-2</v>
       </c>
-      <c r="F41" s="1">
-        <f t="shared" si="0"/>
-        <v>606.99933207284937</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <f>(C40*F40)+(E40*G40)</f>
+        <v>60.699933207284943</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.4650542955892334</v>
+      </c>
+      <c r="J41" s="1">
+        <f>H41-C41</f>
+        <v>-0.2000667927150559</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1150</v>
       </c>
@@ -7160,20 +8888,37 @@
         <v>609</v>
       </c>
       <c r="C42">
+        <f t="shared" si="0"/>
+        <v>60.9</v>
+      </c>
+      <c r="D42">
         <v>1000</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F42" s="2">
         <v>0.90613292380727428</v>
       </c>
-      <c r="E42" s="2">
+      <c r="G42" s="2">
         <v>5.7165061717037127E-2</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" si="0"/>
-        <v>610.80459158792496</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <f>(C41*F41)+(E41*G41)</f>
+        <v>61.080459158792493</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.6474276869501452</v>
+      </c>
+      <c r="J42" s="1">
+        <f>H42-C42</f>
+        <v>0.18045915879249463</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1180</v>
       </c>
@@ -7181,20 +8926,37 @@
         <v>614</v>
       </c>
       <c r="C43">
+        <f t="shared" si="0"/>
+        <v>61.4</v>
+      </c>
+      <c r="D43">
         <v>1000</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F43" s="2">
         <v>0.89033784962684581</v>
       </c>
-      <c r="E43" s="2">
+      <c r="G43" s="2">
         <v>7.1784202541383485E-2</v>
       </c>
-      <c r="F43" s="1">
-        <f t="shared" si="0"/>
-        <v>609.00001231566716</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <f>(C42*F42)+(E42*G42)</f>
+        <v>60.900001231566719</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.1474276869501452</v>
+      </c>
+      <c r="J43" s="1">
+        <f>H43-C43</f>
+        <v>-0.49999876843327939</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1210</v>
       </c>
@@ -7202,20 +8964,37 @@
         <v>619</v>
       </c>
       <c r="C44">
+        <f t="shared" si="0"/>
+        <v>61.9</v>
+      </c>
+      <c r="D44">
         <v>1000</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F44" s="2">
         <v>0.88916222527746736</v>
       </c>
-      <c r="E44" s="2">
+      <c r="G44" s="2">
         <v>7.3054389864752656E-2</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="0"/>
-        <v>618.45164221226685</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <f>(C43*F43)+(E43*G43)</f>
+        <v>61.845164221226682</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.103361165352446</v>
+      </c>
+      <c r="J44" s="1">
+        <f>H44-C44</f>
+        <v>-5.483577877331669E-2</v>
+      </c>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1240</v>
       </c>
@@ -7223,20 +9002,37 @@
         <v>627</v>
       </c>
       <c r="C45">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="D45">
         <v>1000</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F45" s="2">
         <v>0.8775682804326318</v>
       </c>
-      <c r="E45" s="2">
+      <c r="G45" s="2">
         <v>8.3785199289953288E-2</v>
       </c>
-      <c r="F45" s="1">
-        <f t="shared" si="0"/>
-        <v>623.44580731150495</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <f>(C44*F44)+(E44*G44)</f>
+        <v>62.344580731150494</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.7592946437547425</v>
+      </c>
+      <c r="J45" s="1">
+        <f>H45-C45</f>
+        <v>-0.35541926884950925</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1270</v>
       </c>
@@ -7244,17 +9040,85 @@
         <v>627</v>
       </c>
       <c r="C46">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="D46">
         <v>1000</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F46" s="2">
         <v>0.89305116209418722</v>
       </c>
-      <c r="E46" s="2">
+      <c r="G46" s="2">
         <v>6.7056972753435931E-2</v>
       </c>
-      <c r="F46" s="1">
-        <f t="shared" si="0"/>
-        <v>634.02051112121342</v>
+      <c r="H46" s="1">
+        <f>(C45*F45)+(E45*G45)</f>
+        <v>63.402051112121349</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.4887882091984181</v>
+      </c>
+      <c r="J46" s="1">
+        <f>H46-C46</f>
+        <v>0.70205111212134597</v>
+      </c>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H47" s="1"/>
+      <c r="I47" s="5">
+        <f>SUM(I5:I46)</f>
+        <v>-7.1054273576010019E-14</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" s="5">
+        <f>AVERAGE(J5:J38)</f>
+        <v>3.2058195907040954E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="5">
+        <f>MEDIAN(J5:J38)</f>
+        <v>-9.0078453882007636E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="5">
+        <f>MAX(J5:J38)-MIN(J5:J38)</f>
+        <v>3.2152022650197694</v>
+      </c>
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="5">
+        <f>MAX(J5:J38)</f>
+        <v>1.8248933922761879</v>
+      </c>
+    </row>
+    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="5">
+        <f>MIN(J5:J38)</f>
+        <v>-1.3903088727435815</v>
       </c>
     </row>
   </sheetData>
